--- a/Symphony/DECEMBER/01.12.2021/MC Bank Statement November-2021.xlsx
+++ b/Symphony/DECEMBER/01.12.2021/MC Bank Statement November-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -2928,6 +2928,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2959,12 +2965,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5951,9 +5951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5966,67 +5966,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
-      <c r="N1" s="323"/>
-      <c r="O1" s="323"/>
-      <c r="P1" s="323"/>
-      <c r="Q1" s="323"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
+      <c r="Q1" s="325"/>
     </row>
     <row r="2" spans="1:24" s="76" customFormat="1" ht="18">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="326" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="324"/>
-      <c r="N2" s="324"/>
-      <c r="O2" s="324"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
+      <c r="N2" s="326"/>
+      <c r="O2" s="326"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="326"/>
     </row>
     <row r="3" spans="1:24" s="77" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="325" t="s">
+      <c r="A3" s="327" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="326"/>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="326"/>
-      <c r="N3" s="326"/>
-      <c r="O3" s="326"/>
-      <c r="P3" s="326"/>
-      <c r="Q3" s="327"/>
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
+      <c r="M3" s="328"/>
+      <c r="N3" s="328"/>
+      <c r="O3" s="328"/>
+      <c r="P3" s="328"/>
+      <c r="Q3" s="329"/>
       <c r="S3" s="60"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6035,49 +6035,49 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="78" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="330" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="330" t="s">
+      <c r="B4" s="332" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="332" t="s">
+      <c r="C4" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="332" t="s">
+      <c r="D4" s="321" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="332" t="s">
+      <c r="E4" s="321" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="332" t="s">
+      <c r="F4" s="321" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="332" t="s">
+      <c r="G4" s="321" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="332" t="s">
+      <c r="H4" s="321" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="332" t="s">
+      <c r="I4" s="321" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="332" t="s">
+      <c r="J4" s="321" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="332" t="s">
+      <c r="K4" s="321" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="332" t="s">
+      <c r="L4" s="321" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="332" t="s">
+      <c r="M4" s="321" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="332" t="s">
+      <c r="N4" s="321" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="321" t="s">
+      <c r="O4" s="323" t="s">
         <v>53</v>
       </c>
       <c r="P4" s="334" t="s">
@@ -6093,21 +6093,21 @@
       <c r="W4" s="80"/>
     </row>
     <row r="5" spans="1:24" s="78" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="329"/>
-      <c r="B5" s="331"/>
-      <c r="C5" s="333"/>
-      <c r="D5" s="333"/>
-      <c r="E5" s="333"/>
-      <c r="F5" s="333"/>
-      <c r="G5" s="333"/>
-      <c r="H5" s="333"/>
-      <c r="I5" s="333"/>
-      <c r="J5" s="333"/>
-      <c r="K5" s="333"/>
-      <c r="L5" s="333"/>
-      <c r="M5" s="333"/>
-      <c r="N5" s="333"/>
-      <c r="O5" s="322"/>
+      <c r="A5" s="331"/>
+      <c r="B5" s="333"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="322"/>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="322"/>
+      <c r="K5" s="322"/>
+      <c r="L5" s="322"/>
+      <c r="M5" s="322"/>
+      <c r="N5" s="322"/>
+      <c r="O5" s="324"/>
       <c r="P5" s="335"/>
       <c r="Q5" s="140" t="s">
         <v>54</v>
@@ -6130,7 +6130,7 @@
       <c r="D6" s="87"/>
       <c r="E6" s="87"/>
       <c r="F6" s="87">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G6" s="87">
         <v>200</v>
@@ -6150,7 +6150,7 @@
       <c r="P6" s="89"/>
       <c r="Q6" s="90">
         <f t="shared" ref="Q6:Q36" si="0">SUM(B6:P6)</f>
-        <v>1770</v>
+        <v>1810</v>
       </c>
       <c r="R6" s="91"/>
       <c r="S6" s="92"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="F37" s="112">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G37" s="112">
         <f>SUM(G6:G36)</f>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="Q37" s="114">
         <f>SUM(Q6:Q36)</f>
-        <v>1770</v>
+        <v>1810</v>
       </c>
       <c r="S37" s="247" t="s">
         <v>61</v>
@@ -9011,6 +9011,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9027,9 +9030,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33343,7 +33343,7 @@
   </sheetPr>
   <dimension ref="A1:AC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
